--- a/target.xlsx
+++ b/target.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_ITjob\Github\3_Insert picture to Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_ITjob\Github\3_Insert_picture_to_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683DDE65-8507-4659-B7FF-9B61154314F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0C7A6-380A-4838-B09F-8DD273C6CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,12 +50,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,7 +79,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -75,61 +97,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22936</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>18440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2270684</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1825599</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5C7345-AF0E-5488-62FD-1E2AB826B6C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="632536" y="201320"/>
-          <a:ext cx="2247748" cy="1807159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,32 +362,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="4" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>1</v>
       </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:2" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:2" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:2" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:2" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:2" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:2" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:2" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target.xlsx
+++ b/target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_ITjob\Github\3_Insert_picture_to_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0C7A6-380A-4838-B09F-8DD273C6CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43920B79-98A2-4353-9715-6C85B6CBF491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
